--- a/data-senteces.xlsx
+++ b/data-senteces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\CursedKingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA315D-92D3-4432-A204-FF6B9DD0B784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0580F8-49A3-47EB-BB71-1B4FE76EFB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="33915" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{4548776F-D2DA-41AE-8E15-FA17EE5DDF1B}"/>
+    <workbookView xWindow="33915" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{4548776F-D2DA-41AE-8E15-FA17EE5DDF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Instruction</t>
   </si>
@@ -141,6 +141,24 @@
   </si>
   <si>
     <t>data for logged user</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Send new chat messages</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>n x ChatMessage</t>
+  </si>
+  <si>
+    <t>Send message</t>
   </si>
 </sst>
 </file>
@@ -500,11 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC905DE-57E8-4FF8-9B83-67EA7BE7A61A}">
-  <dimension ref="A1:AC102"/>
+  <dimension ref="A1:AC110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,6 +667,26 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
@@ -707,6 +745,23 @@
       </c>
       <c r="D102" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data-senteces.xlsx
+++ b/data-senteces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\CursedKingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0580F8-49A3-47EB-BB71-1B4FE76EFB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607A80A9-39F8-4659-8036-6F8DDA074F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33915" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{4548776F-D2DA-41AE-8E15-FA17EE5DDF1B}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:AC110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
